--- a/biology/Zoologie/Boiruna/Boiruna.xlsx
+++ b/biology/Zoologie/Boiruna/Boiruna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boiruna est un genre de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boiruna est un genre de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Argentine, en Uruguay, au Paraguay, en Bolivie et au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Argentine, en Uruguay, au Paraguay, en Bolivie et au Brésil.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces serpents mesurent environ 35 cm. Ils naissent rouges ou orange et deviennent gris sombre à noir en grandissant.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 août 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 août 2013) :
 Boiruna maculata (Boulenger, 1896)
 Boiruna sertaneja Zaher, 1996</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre, Bioruna, vient du tupi-guarani Mboi+r+ú, « qui mange des serpents » et una, « noir », en référence au fait que ces serpents de couleur noire sont ophiophages[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre, Bioruna, vient du tupi-guarani Mboi+r+ú, « qui mange des serpents » et una, « noir », en référence au fait que ces serpents de couleur noire sont ophiophages.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Zaher, 1996 : A new genus and species of pseudoboine snake, with a revision of the genus Clelia (Serpentes, Xenodontinae). Bollettino del Museo Regionale di Scienze Naturali. Torino, vol. 14, p. 289-337.</t>
         </is>
